--- a/biology/Botanique/Tarocco_(orange)/Tarocco_(orange).xlsx
+++ b/biology/Botanique/Tarocco_(orange)/Tarocco_(orange).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'orange tarocco est une orange sicilienne renommée, spécialité de Lentini, Francofonte, Adrano et de la vallée du Simeto. De nombreux cultivars portent ce nom. C'est un gros fruit ovale à peau fine, à pulpe plus ou moins sanguine, sans pépins.
-Elle est la variété la plus cultivée parmi les IGP Orange sanguine de Sicile, aux côtés de Moro et de Sanguinello[1].
+Elle est la variété la plus cultivée parmi les IGP Orange sanguine de Sicile, aux côtés de Moro et de Sanguinello.
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'origine du mot est incertaine, le lien avec le jeu de tarot, homonyme en italien, n'est pas démontré[2].
-Tarocco est classée dans les oranges sanguines[3], elle n'est pas une navel[4] même si elle peut avoir un second fruit embryonnaire[5]. L'origine est inconnue, la plantation était déjà importante au XIXe siècle: La production de Tarocco mentionnée dans l'Annuario statistico italiano de 1878 est à Catane de l'ordre de 10 000 t[6].
-L'IGP  Arancia rossa di Sicilia a été enregistrée le 21 juin 1996[7] avec comme variétés couvertes Tarocco, Moro et Sanguinello et une zone géographique à l'ouest et au sud de Catane (diverses communes des provinces d'Enna, Catane et Syracuse[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'origine du mot est incertaine, le lien avec le jeu de tarot, homonyme en italien, n'est pas démontré.
+Tarocco est classée dans les oranges sanguines, elle n'est pas une navel même si elle peut avoir un second fruit embryonnaire. L'origine est inconnue, la plantation était déjà importante au XIXe siècle: La production de Tarocco mentionnée dans l'Annuario statistico italiano de 1878 est à Catane de l'ordre de 10 000 t.
+L'IGP  Arancia rossa di Sicilia a été enregistrée le 21 juin 1996 avec comme variétés couvertes Tarocco, Moro et Sanguinello et une zone géographique à l'ouest et au sud de Catane (diverses communes des provinces d'Enna, Catane et Syracuse.
 </t>
         </is>
       </c>
@@ -546,86 +560,196 @@
           <t>Cultivars et hybrides</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les oranges sanguines ne doivent pas leur coloration uniquement au cultivar mais aussi au climat (la coloration sanguine nécessite un hiver froid[8]) et au porte-greffe. Le porte-greffe Citrange (spécialement C22) donne un fruit bien coloré, à l'opposé le porte-greffe C. macrophylla nuit à la coloration[9]. Encore faut-il distinguer selon les cultivars[10]. Depuis 1990, les chercheurs du CREA (Acireale) ont sélectionné les cultivars les plus pigmentés après un gros travail de multiplication[11].
-Description
-Oranger dense, épineux, moyennement vigoureux. Fruits subovales de taille moyenne; le poids varie entre 200 et 250 g[13], à grande de jaune à rouge-orange, pulpe orange ou rouge/violacée, moins coloré que Moro[14].
-Largement plantée en Sicile, elle se cultive aussi en Espagne (sous les noms de cultivars Tarocco Rosso et Tarocco Ippolito[15]), au Maroc[5] et en Afrique du Sud.
-La pigmentation sanguine est due à la présence de composés bioactifs dont 10 anthocyanes, 7 dérivées de cyanidine et 3 de delphinidine, la cyanidine 3-(6″-malonylglucoside) et la cyanidine 3-glucoside[16]. 3 gènes codants sont impliqués dans la régulation des anthocyanes chez Tarocco[17].
-Obtentions contemporaines
-A. Gentile et G. Distefano donnent 20 cultivars d'orange Tarocco, plus ou moins pigmentés et de maturité étalée de décembre (Tapi obtention Acireale 1975 à pulpe intensément colorée, asperme et TDV Tarocco Degenerazione delle Vesichette sélection CRA-IEC Acireale 1976[18]) à avril[19] (Tarocco Meli NL C 8158, clone Meli, Acireale, 1988) et mai (Tarocco Messina rotondo, Acireal 1988, fruit un peu plus petit que les Tarocco classiques)[20].
-L'inventaire (2006) de la Région Sicile décrit 14 cultivars d'oranges pigmentées (sanguines) dont 13 Tarocco[20]. Les cultivars notables sont:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les oranges sanguines ne doivent pas leur coloration uniquement au cultivar mais aussi au climat (la coloration sanguine nécessite un hiver froid) et au porte-greffe. Le porte-greffe Citrange (spécialement C22) donne un fruit bien coloré, à l'opposé le porte-greffe C. macrophylla nuit à la coloration. Encore faut-il distinguer selon les cultivars. Depuis 1990, les chercheurs du CREA (Acireale) ont sélectionné les cultivars les plus pigmentés après un gros travail de multiplication.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tarocco_(orange)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tarocco_(orange)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Cultivars et hybrides</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oranger dense, épineux, moyennement vigoureux. Fruits subovales de taille moyenne; le poids varie entre 200 et 250 g, à grande de jaune à rouge-orange, pulpe orange ou rouge/violacée, moins coloré que Moro.
+Largement plantée en Sicile, elle se cultive aussi en Espagne (sous les noms de cultivars Tarocco Rosso et Tarocco Ippolito), au Maroc et en Afrique du Sud.
+La pigmentation sanguine est due à la présence de composés bioactifs dont 10 anthocyanes, 7 dérivées de cyanidine et 3 de delphinidine, la cyanidine 3-(6″-malonylglucoside) et la cyanidine 3-glucoside. 3 gènes codants sont impliqués dans la régulation des anthocyanes chez Tarocco.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tarocco_(orange)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tarocco_(orange)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Cultivars et hybrides</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Obtentions contemporaines</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>A. Gentile et G. Distefano donnent 20 cultivars d'orange Tarocco, plus ou moins pigmentés et de maturité étalée de décembre (Tapi obtention Acireale 1975 à pulpe intensément colorée, asperme et TDV Tarocco Degenerazione delle Vesichette sélection CRA-IEC Acireale 1976) à avril (Tarocco Meli NL C 8158, clone Meli, Acireale, 1988) et mai (Tarocco Messina rotondo, Acireal 1988, fruit un peu plus petit que les Tarocco classiques).
+L'inventaire (2006) de la Région Sicile décrit 14 cultivars d'oranges pigmentées (sanguines) dont 13 Tarocco. Les cultivars notables sont:
 Tarocco Scirè est la variété originale découverte par les frères Scirè, la plus répandue,
 Tarocco Sciara fruit de grande taille avec un rendement en jus élevé, faible pigmentation anthocyanique,
 Tarocco San Alfio tardive, faible pigmentation anthocyanique,
 Tarocco Rosso VCR, forte pigmentation anthocyanique à maturité,
-Tarocco Lempso autre forte pigmentation anthocyanique y compris la peau et teneur élevée en acidité[20]. Sa teneur en flavanones est spécialement élevée[21] tout comme l'activité anti-inflammatoire et antioxydante (en modèle murin[22]).
-Les hybrides
-Tacle (clementine Monreal 2x × orange Tarocco 4x), TA = Tarocco CLE = clémentine est un hybride triploïde commercialisé depuis 2000 (400 ha en culture),
-Mandared (clementine Nules 2x × orange Tarocco 4x), mandarine sanguine obtenue en 2004[9].</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+Tarocco Lempso autre forte pigmentation anthocyanique y compris la peau et teneur élevée en acidité. Sa teneur en flavanones est spécialement élevée tout comme l'activité anti-inflammatoire et antioxydante (en modèle murin).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Tarocco_(orange)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Tarocco_(orange)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Cultivars et hybrides</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les hybrides</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Tacle (clementine Monreal 2x × orange Tarocco 4x), TA = Tarocco CLE = clémentine est un hybride triploïde commercialisé depuis 2000 (400 ha en culture),
+Mandared (clementine Nules 2x × orange Tarocco 4x), mandarine sanguine obtenue en 2004.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tarocco_(orange)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tarocco_(orange)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Une orange à jus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Italie est le principal producteur de jus d'oranges sanguines[23] dont le rendement en jus en moins bon que les oranges blondes. Les Tarocco produisent un jus d'orange coloré, qui ne se différencie pas par son gout[24] mais spécialement riche en vitamine C[25] (118 à 195 mg/ 250 ml[26]) et en flavanones[27], le niveau de sucre est de 12 à 12,5 ° brix et le pH est acide (3,5)[28].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Italie est le principal producteur de jus d'oranges sanguines dont le rendement en jus en moins bon que les oranges blondes. Les Tarocco produisent un jus d'orange coloré, qui ne se différencie pas par son gout mais spécialement riche en vitamine C (118 à 195 mg/ 250 ml) et en flavanones, le niveau de sucre est de 12 à 12,5 ° brix et le pH est acide (3,5).
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Tarocco_(orange)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Tarocco_(orange)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Huile essentielle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'HE de tarocco contient du limonène comme composant majoritaire (84,5%)[29], M. Sawamura mentionne (2011) ensuite l'α-terpinène[30]. Elle présente une activité antioxydante très élevée, une des plus hautes avec les citrons Eureka et Lisbon, le yuzu, hassaku, le sudachi[31].
-Une comparaison des compositions de HE de fleurs et de feuilles de Washington navel, Tarocco et Sanguigno a été publiée en 2016. En 2022 une étude chinoise compare l'HE d'écorce de Tarocco et celle des mandarines, elle montre une plus forte diversité des métabolites chez la mandarine, les 10 principaux métabolites présents chez Tarocco sont des terpénoïdes (6 composés), esters (2) et des phénols (2)[32].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'HE de tarocco contient du limonène comme composant majoritaire (84,5%), M. Sawamura mentionne (2011) ensuite l'α-terpinène. Elle présente une activité antioxydante très élevée, une des plus hautes avec les citrons Eureka et Lisbon, le yuzu, hassaku, le sudachi.
+Une comparaison des compositions de HE de fleurs et de feuilles de Washington navel, Tarocco et Sanguigno a été publiée en 2016. En 2022 une étude chinoise compare l'HE d'écorce de Tarocco et celle des mandarines, elle montre une plus forte diversité des métabolites chez la mandarine, les 10 principaux métabolites présents chez Tarocco sont des terpénoïdes (6 composés), esters (2) et des phénols (2).
 </t>
         </is>
       </c>
